--- a/results/tpdb_aug440/tp_loop_440_results.xlsx
+++ b/results/tpdb_aug440/tp_loop_440_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI441"/>
+  <dimension ref="A1:AK441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,16 @@
           <t>recur_type</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>RAG_enabled</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ET+CPA_noRAG</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -750,6 +760,14 @@
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -891,6 +909,14 @@
         </is>
       </c>
       <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1032,6 +1058,14 @@
         </is>
       </c>
       <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1173,6 +1207,14 @@
         </is>
       </c>
       <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1314,6 +1356,14 @@
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1455,6 +1505,14 @@
         </is>
       </c>
       <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1596,6 +1654,14 @@
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1737,6 +1803,14 @@
         </is>
       </c>
       <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1878,6 +1952,14 @@
         </is>
       </c>
       <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2019,6 +2101,14 @@
         </is>
       </c>
       <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2160,6 +2250,14 @@
         </is>
       </c>
       <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2301,6 +2399,14 @@
         </is>
       </c>
       <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2442,6 +2548,14 @@
         </is>
       </c>
       <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2583,6 +2697,14 @@
         </is>
       </c>
       <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2724,6 +2846,14 @@
         </is>
       </c>
       <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2865,6 +2995,14 @@
         </is>
       </c>
       <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3006,6 +3144,14 @@
         </is>
       </c>
       <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3147,6 +3293,14 @@
         </is>
       </c>
       <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3288,6 +3442,14 @@
         </is>
       </c>
       <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3429,6 +3591,14 @@
         </is>
       </c>
       <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3570,6 +3740,14 @@
         </is>
       </c>
       <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3711,6 +3889,14 @@
         </is>
       </c>
       <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3852,6 +4038,14 @@
         </is>
       </c>
       <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3993,6 +4187,14 @@
         </is>
       </c>
       <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4134,6 +4336,14 @@
         </is>
       </c>
       <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4275,6 +4485,14 @@
         </is>
       </c>
       <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4416,6 +4634,14 @@
         </is>
       </c>
       <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4557,6 +4783,14 @@
         </is>
       </c>
       <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4698,6 +4932,14 @@
         </is>
       </c>
       <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4839,6 +5081,14 @@
         </is>
       </c>
       <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4980,6 +5230,14 @@
         </is>
       </c>
       <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5121,6 +5379,14 @@
         </is>
       </c>
       <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5262,6 +5528,14 @@
         </is>
       </c>
       <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5403,6 +5677,14 @@
         </is>
       </c>
       <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5544,6 +5826,14 @@
         </is>
       </c>
       <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5685,6 +5975,14 @@
         </is>
       </c>
       <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5826,6 +6124,14 @@
         </is>
       </c>
       <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5967,6 +6273,14 @@
         </is>
       </c>
       <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6108,6 +6422,14 @@
         </is>
       </c>
       <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6249,6 +6571,14 @@
         </is>
       </c>
       <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6390,6 +6720,14 @@
         </is>
       </c>
       <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6531,6 +6869,14 @@
         </is>
       </c>
       <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6672,6 +7018,14 @@
         </is>
       </c>
       <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6813,6 +7167,14 @@
         </is>
       </c>
       <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6954,6 +7316,14 @@
         </is>
       </c>
       <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7095,6 +7465,14 @@
         </is>
       </c>
       <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7236,6 +7614,14 @@
         </is>
       </c>
       <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7377,6 +7763,14 @@
         </is>
       </c>
       <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7518,6 +7912,14 @@
         </is>
       </c>
       <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7659,6 +8061,14 @@
         </is>
       </c>
       <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7800,6 +8210,14 @@
         </is>
       </c>
       <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7941,6 +8359,14 @@
         </is>
       </c>
       <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8082,6 +8508,14 @@
         </is>
       </c>
       <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8223,6 +8657,14 @@
         </is>
       </c>
       <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8364,6 +8806,14 @@
         </is>
       </c>
       <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8505,6 +8955,14 @@
         </is>
       </c>
       <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8646,6 +9104,14 @@
         </is>
       </c>
       <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8787,6 +9253,14 @@
         </is>
       </c>
       <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8928,6 +9402,14 @@
         </is>
       </c>
       <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9069,6 +9551,14 @@
         </is>
       </c>
       <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9210,6 +9700,14 @@
         </is>
       </c>
       <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9351,6 +9849,14 @@
         </is>
       </c>
       <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9492,6 +9998,14 @@
         </is>
       </c>
       <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9633,6 +10147,14 @@
         </is>
       </c>
       <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9774,6 +10296,14 @@
         </is>
       </c>
       <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9915,6 +10445,14 @@
         </is>
       </c>
       <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10056,6 +10594,14 @@
         </is>
       </c>
       <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10197,6 +10743,14 @@
         </is>
       </c>
       <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10338,6 +10892,14 @@
         </is>
       </c>
       <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10479,6 +11041,14 @@
         </is>
       </c>
       <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10620,6 +11190,14 @@
         </is>
       </c>
       <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10761,6 +11339,14 @@
         </is>
       </c>
       <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10902,6 +11488,14 @@
         </is>
       </c>
       <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11043,6 +11637,14 @@
         </is>
       </c>
       <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11184,6 +11786,14 @@
         </is>
       </c>
       <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11325,6 +11935,14 @@
         </is>
       </c>
       <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11466,6 +12084,14 @@
         </is>
       </c>
       <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11607,6 +12233,14 @@
         </is>
       </c>
       <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11748,6 +12382,14 @@
         </is>
       </c>
       <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11889,6 +12531,14 @@
         </is>
       </c>
       <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12018,6 +12668,14 @@
         </is>
       </c>
       <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12163,6 +12821,14 @@
           <t>non-tail</t>
         </is>
       </c>
+      <c r="AJ83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12304,6 +12970,14 @@
         </is>
       </c>
       <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12445,6 +13119,14 @@
         </is>
       </c>
       <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12586,6 +13268,14 @@
         </is>
       </c>
       <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12727,6 +13417,14 @@
         </is>
       </c>
       <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12868,6 +13566,14 @@
         </is>
       </c>
       <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -13009,6 +13715,14 @@
         </is>
       </c>
       <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13150,6 +13864,14 @@
         </is>
       </c>
       <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -13291,6 +14013,14 @@
         </is>
       </c>
       <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13432,6 +14162,14 @@
         </is>
       </c>
       <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13573,6 +14311,14 @@
         </is>
       </c>
       <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13714,6 +14460,14 @@
         </is>
       </c>
       <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13855,6 +14609,14 @@
         </is>
       </c>
       <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13996,6 +14758,14 @@
         </is>
       </c>
       <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14137,6 +14907,14 @@
         </is>
       </c>
       <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -14278,6 +15056,14 @@
         </is>
       </c>
       <c r="AI98" t="inlineStr"/>
+      <c r="AJ98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14419,6 +15205,14 @@
         </is>
       </c>
       <c r="AI99" t="inlineStr"/>
+      <c r="AJ99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK99" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14560,6 +15354,14 @@
         </is>
       </c>
       <c r="AI100" t="inlineStr"/>
+      <c r="AJ100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK100" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14701,6 +15503,14 @@
         </is>
       </c>
       <c r="AI101" t="inlineStr"/>
+      <c r="AJ101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK101" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14842,6 +15652,14 @@
         </is>
       </c>
       <c r="AI102" t="inlineStr"/>
+      <c r="AJ102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14983,6 +15801,14 @@
         </is>
       </c>
       <c r="AI103" t="inlineStr"/>
+      <c r="AJ103" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK103" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -15124,6 +15950,14 @@
         </is>
       </c>
       <c r="AI104" t="inlineStr"/>
+      <c r="AJ104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK104" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -15265,6 +16099,14 @@
         </is>
       </c>
       <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK105" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15406,6 +16248,14 @@
         </is>
       </c>
       <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK106" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15547,6 +16397,14 @@
         </is>
       </c>
       <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK107" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15688,6 +16546,14 @@
         </is>
       </c>
       <c r="AI108" t="inlineStr"/>
+      <c r="AJ108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK108" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15829,6 +16695,14 @@
         </is>
       </c>
       <c r="AI109" t="inlineStr"/>
+      <c r="AJ109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK109" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15970,6 +16844,14 @@
         </is>
       </c>
       <c r="AI110" t="inlineStr"/>
+      <c r="AJ110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK110" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -16111,6 +16993,14 @@
         </is>
       </c>
       <c r="AI111" t="inlineStr"/>
+      <c r="AJ111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK111" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -16252,6 +17142,14 @@
         </is>
       </c>
       <c r="AI112" t="inlineStr"/>
+      <c r="AJ112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK112" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16393,6 +17291,14 @@
         </is>
       </c>
       <c r="AI113" t="inlineStr"/>
+      <c r="AJ113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK113" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16534,6 +17440,14 @@
         </is>
       </c>
       <c r="AI114" t="inlineStr"/>
+      <c r="AJ114" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK114" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16675,6 +17589,14 @@
         </is>
       </c>
       <c r="AI115" t="inlineStr"/>
+      <c r="AJ115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK115" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16816,6 +17738,14 @@
         </is>
       </c>
       <c r="AI116" t="inlineStr"/>
+      <c r="AJ116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK116" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16957,6 +17887,14 @@
         </is>
       </c>
       <c r="AI117" t="inlineStr"/>
+      <c r="AJ117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK117" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -17098,6 +18036,14 @@
         </is>
       </c>
       <c r="AI118" t="inlineStr"/>
+      <c r="AJ118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK118" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -17239,6 +18185,14 @@
         </is>
       </c>
       <c r="AI119" t="inlineStr"/>
+      <c r="AJ119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK119" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -17380,6 +18334,14 @@
         </is>
       </c>
       <c r="AI120" t="inlineStr"/>
+      <c r="AJ120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK120" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17521,6 +18483,14 @@
         </is>
       </c>
       <c r="AI121" t="inlineStr"/>
+      <c r="AJ121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK121" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17662,6 +18632,14 @@
         </is>
       </c>
       <c r="AI122" t="inlineStr"/>
+      <c r="AJ122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK122" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17803,6 +18781,14 @@
         </is>
       </c>
       <c r="AI123" t="inlineStr"/>
+      <c r="AJ123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK123" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17944,6 +18930,14 @@
         </is>
       </c>
       <c r="AI124" t="inlineStr"/>
+      <c r="AJ124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK124" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -18085,6 +19079,14 @@
         </is>
       </c>
       <c r="AI125" t="inlineStr"/>
+      <c r="AJ125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK125" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -18226,6 +19228,14 @@
         </is>
       </c>
       <c r="AI126" t="inlineStr"/>
+      <c r="AJ126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK126" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -18367,6 +19377,14 @@
         </is>
       </c>
       <c r="AI127" t="inlineStr"/>
+      <c r="AJ127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18508,6 +19526,14 @@
         </is>
       </c>
       <c r="AI128" t="inlineStr"/>
+      <c r="AJ128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK128" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18649,6 +19675,14 @@
         </is>
       </c>
       <c r="AI129" t="inlineStr"/>
+      <c r="AJ129" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK129" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18790,6 +19824,14 @@
         </is>
       </c>
       <c r="AI130" t="inlineStr"/>
+      <c r="AJ130" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK130" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18931,6 +19973,14 @@
         </is>
       </c>
       <c r="AI131" t="inlineStr"/>
+      <c r="AJ131" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK131" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -19072,6 +20122,14 @@
         </is>
       </c>
       <c r="AI132" t="inlineStr"/>
+      <c r="AJ132" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK132" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -19213,6 +20271,14 @@
         </is>
       </c>
       <c r="AI133" t="inlineStr"/>
+      <c r="AJ133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK133" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -19354,6 +20420,14 @@
         </is>
       </c>
       <c r="AI134" t="inlineStr"/>
+      <c r="AJ134" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK134" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -19495,6 +20569,14 @@
         </is>
       </c>
       <c r="AI135" t="inlineStr"/>
+      <c r="AJ135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK135" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19636,6 +20718,14 @@
         </is>
       </c>
       <c r="AI136" t="inlineStr"/>
+      <c r="AJ136" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK136" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19777,6 +20867,14 @@
         </is>
       </c>
       <c r="AI137" t="inlineStr"/>
+      <c r="AJ137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK137" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19918,6 +21016,14 @@
         </is>
       </c>
       <c r="AI138" t="inlineStr"/>
+      <c r="AJ138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK138" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -20059,6 +21165,14 @@
         </is>
       </c>
       <c r="AI139" t="inlineStr"/>
+      <c r="AJ139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK139" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -20200,6 +21314,14 @@
         </is>
       </c>
       <c r="AI140" t="inlineStr"/>
+      <c r="AJ140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK140" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -20341,6 +21463,14 @@
         </is>
       </c>
       <c r="AI141" t="inlineStr"/>
+      <c r="AJ141" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK141" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -20482,6 +21612,14 @@
         </is>
       </c>
       <c r="AI142" t="inlineStr"/>
+      <c r="AJ142" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK142" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20623,6 +21761,14 @@
         </is>
       </c>
       <c r="AI143" t="inlineStr"/>
+      <c r="AJ143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK143" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20764,6 +21910,14 @@
         </is>
       </c>
       <c r="AI144" t="inlineStr"/>
+      <c r="AJ144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK144" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20905,6 +22059,14 @@
         </is>
       </c>
       <c r="AI145" t="inlineStr"/>
+      <c r="AJ145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK145" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -21046,6 +22208,14 @@
         </is>
       </c>
       <c r="AI146" t="inlineStr"/>
+      <c r="AJ146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK146" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -21187,6 +22357,14 @@
         </is>
       </c>
       <c r="AI147" t="inlineStr"/>
+      <c r="AJ147" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK147" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -21328,6 +22506,14 @@
         </is>
       </c>
       <c r="AI148" t="inlineStr"/>
+      <c r="AJ148" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK148" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -21469,6 +22655,14 @@
         </is>
       </c>
       <c r="AI149" t="inlineStr"/>
+      <c r="AJ149" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK149" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -21610,6 +22804,14 @@
         </is>
       </c>
       <c r="AI150" t="inlineStr"/>
+      <c r="AJ150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK150" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21751,6 +22953,14 @@
         </is>
       </c>
       <c r="AI151" t="inlineStr"/>
+      <c r="AJ151" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK151" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21892,6 +23102,14 @@
         </is>
       </c>
       <c r="AI152" t="inlineStr"/>
+      <c r="AJ152" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK152" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -22033,6 +23251,14 @@
         </is>
       </c>
       <c r="AI153" t="inlineStr"/>
+      <c r="AJ153" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK153" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -22174,6 +23400,14 @@
         </is>
       </c>
       <c r="AI154" t="inlineStr"/>
+      <c r="AJ154" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK154" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -22315,6 +23549,14 @@
         </is>
       </c>
       <c r="AI155" t="inlineStr"/>
+      <c r="AJ155" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK155" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -22456,6 +23698,14 @@
         </is>
       </c>
       <c r="AI156" t="inlineStr"/>
+      <c r="AJ156" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK156" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -22597,6 +23847,14 @@
         </is>
       </c>
       <c r="AI157" t="inlineStr"/>
+      <c r="AJ157" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK157" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22738,6 +23996,14 @@
         </is>
       </c>
       <c r="AI158" t="inlineStr"/>
+      <c r="AJ158" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK158" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -22879,6 +24145,14 @@
         </is>
       </c>
       <c r="AI159" t="inlineStr"/>
+      <c r="AJ159" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK159" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -23020,6 +24294,14 @@
         </is>
       </c>
       <c r="AI160" t="inlineStr"/>
+      <c r="AJ160" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK160" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -23161,6 +24443,14 @@
         </is>
       </c>
       <c r="AI161" t="inlineStr"/>
+      <c r="AJ161" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK161" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -23302,6 +24592,14 @@
         </is>
       </c>
       <c r="AI162" t="inlineStr"/>
+      <c r="AJ162" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK162" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -23443,6 +24741,14 @@
         </is>
       </c>
       <c r="AI163" t="inlineStr"/>
+      <c r="AJ163" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK163" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -23584,6 +24890,14 @@
         </is>
       </c>
       <c r="AI164" t="inlineStr"/>
+      <c r="AJ164" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK164" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23725,6 +25039,14 @@
         </is>
       </c>
       <c r="AI165" t="inlineStr"/>
+      <c r="AJ165" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK165" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -23866,6 +25188,14 @@
         </is>
       </c>
       <c r="AI166" t="inlineStr"/>
+      <c r="AJ166" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK166" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -24007,6 +25337,14 @@
         </is>
       </c>
       <c r="AI167" t="inlineStr"/>
+      <c r="AJ167" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK167" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -24148,6 +25486,14 @@
         </is>
       </c>
       <c r="AI168" t="inlineStr"/>
+      <c r="AJ168" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK168" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -24289,6 +25635,14 @@
         </is>
       </c>
       <c r="AI169" t="inlineStr"/>
+      <c r="AJ169" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK169" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -24430,6 +25784,14 @@
         </is>
       </c>
       <c r="AI170" t="inlineStr"/>
+      <c r="AJ170" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK170" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -24571,6 +25933,14 @@
         </is>
       </c>
       <c r="AI171" t="inlineStr"/>
+      <c r="AJ171" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK171" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -24712,6 +26082,14 @@
         </is>
       </c>
       <c r="AI172" t="inlineStr"/>
+      <c r="AJ172" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK172" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -24853,6 +26231,14 @@
         </is>
       </c>
       <c r="AI173" t="inlineStr"/>
+      <c r="AJ173" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK173" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -24994,6 +26380,14 @@
         </is>
       </c>
       <c r="AI174" t="inlineStr"/>
+      <c r="AJ174" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK174" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -25135,6 +26529,14 @@
         </is>
       </c>
       <c r="AI175" t="inlineStr"/>
+      <c r="AJ175" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK175" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -25276,6 +26678,14 @@
         </is>
       </c>
       <c r="AI176" t="inlineStr"/>
+      <c r="AJ176" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK176" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -25417,6 +26827,14 @@
         </is>
       </c>
       <c r="AI177" t="inlineStr"/>
+      <c r="AJ177" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK177" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -25558,6 +26976,14 @@
         </is>
       </c>
       <c r="AI178" t="inlineStr"/>
+      <c r="AJ178" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK178" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -25699,6 +27125,14 @@
         </is>
       </c>
       <c r="AI179" t="inlineStr"/>
+      <c r="AJ179" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK179" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -25840,6 +27274,14 @@
         </is>
       </c>
       <c r="AI180" t="inlineStr"/>
+      <c r="AJ180" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK180" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -25981,6 +27423,14 @@
         </is>
       </c>
       <c r="AI181" t="inlineStr"/>
+      <c r="AJ181" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK181" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -26122,6 +27572,14 @@
         </is>
       </c>
       <c r="AI182" t="inlineStr"/>
+      <c r="AJ182" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK182" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -26263,6 +27721,14 @@
         </is>
       </c>
       <c r="AI183" t="inlineStr"/>
+      <c r="AJ183" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK183" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -26404,6 +27870,14 @@
         </is>
       </c>
       <c r="AI184" t="inlineStr"/>
+      <c r="AJ184" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK184" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -26545,6 +28019,14 @@
         </is>
       </c>
       <c r="AI185" t="inlineStr"/>
+      <c r="AJ185" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK185" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -26686,6 +28168,14 @@
         </is>
       </c>
       <c r="AI186" t="inlineStr"/>
+      <c r="AJ186" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK186" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -26827,6 +28317,14 @@
         </is>
       </c>
       <c r="AI187" t="inlineStr"/>
+      <c r="AJ187" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK187" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -26968,6 +28466,14 @@
         </is>
       </c>
       <c r="AI188" t="inlineStr"/>
+      <c r="AJ188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK188" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -27109,6 +28615,14 @@
         </is>
       </c>
       <c r="AI189" t="inlineStr"/>
+      <c r="AJ189" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK189" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -27250,6 +28764,14 @@
         </is>
       </c>
       <c r="AI190" t="inlineStr"/>
+      <c r="AJ190" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK190" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -27391,6 +28913,14 @@
         </is>
       </c>
       <c r="AI191" t="inlineStr"/>
+      <c r="AJ191" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK191" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -27532,6 +29062,14 @@
         </is>
       </c>
       <c r="AI192" t="inlineStr"/>
+      <c r="AJ192" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK192" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -27673,6 +29211,14 @@
         </is>
       </c>
       <c r="AI193" t="inlineStr"/>
+      <c r="AJ193" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK193" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -27814,6 +29360,14 @@
         </is>
       </c>
       <c r="AI194" t="inlineStr"/>
+      <c r="AJ194" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK194" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -27955,6 +29509,14 @@
         </is>
       </c>
       <c r="AI195" t="inlineStr"/>
+      <c r="AJ195" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK195" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -28096,6 +29658,14 @@
         </is>
       </c>
       <c r="AI196" t="inlineStr"/>
+      <c r="AJ196" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK196" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -28237,6 +29807,14 @@
         </is>
       </c>
       <c r="AI197" t="inlineStr"/>
+      <c r="AJ197" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK197" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -28378,6 +29956,14 @@
         </is>
       </c>
       <c r="AI198" t="inlineStr"/>
+      <c r="AJ198" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK198" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -28519,6 +30105,14 @@
         </is>
       </c>
       <c r="AI199" t="inlineStr"/>
+      <c r="AJ199" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK199" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -28660,6 +30254,14 @@
         </is>
       </c>
       <c r="AI200" t="inlineStr"/>
+      <c r="AJ200" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK200" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -28801,6 +30403,14 @@
         </is>
       </c>
       <c r="AI201" t="inlineStr"/>
+      <c r="AJ201" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK201" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -28942,6 +30552,14 @@
         </is>
       </c>
       <c r="AI202" t="inlineStr"/>
+      <c r="AJ202" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK202" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -29083,6 +30701,14 @@
         </is>
       </c>
       <c r="AI203" t="inlineStr"/>
+      <c r="AJ203" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK203" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -29224,6 +30850,14 @@
         </is>
       </c>
       <c r="AI204" t="inlineStr"/>
+      <c r="AJ204" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK204" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -29365,6 +30999,14 @@
         </is>
       </c>
       <c r="AI205" t="inlineStr"/>
+      <c r="AJ205" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK205" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -29506,6 +31148,14 @@
         </is>
       </c>
       <c r="AI206" t="inlineStr"/>
+      <c r="AJ206" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK206" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -29647,6 +31297,14 @@
         </is>
       </c>
       <c r="AI207" t="inlineStr"/>
+      <c r="AJ207" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK207" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -29788,6 +31446,14 @@
         </is>
       </c>
       <c r="AI208" t="inlineStr"/>
+      <c r="AJ208" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK208" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -29929,6 +31595,14 @@
         </is>
       </c>
       <c r="AI209" t="inlineStr"/>
+      <c r="AJ209" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK209" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -30074,6 +31748,14 @@
           <t>non-tail</t>
         </is>
       </c>
+      <c r="AJ210" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK210" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -30215,6 +31897,14 @@
         </is>
       </c>
       <c r="AI211" t="inlineStr"/>
+      <c r="AJ211" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK211" t="inlineStr">
+        <is>
+          <t>Nonterminate</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -30356,6 +32046,14 @@
         </is>
       </c>
       <c r="AI212" t="inlineStr"/>
+      <c r="AJ212" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK212" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -30497,6 +32195,14 @@
         </is>
       </c>
       <c r="AI213" t="inlineStr"/>
+      <c r="AJ213" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK213" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -30638,6 +32344,14 @@
         </is>
       </c>
       <c r="AI214" t="inlineStr"/>
+      <c r="AJ214" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK214" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -30779,6 +32493,14 @@
         </is>
       </c>
       <c r="AI215" t="inlineStr"/>
+      <c r="AJ215" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK215" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -30920,6 +32642,14 @@
         </is>
       </c>
       <c r="AI216" t="inlineStr"/>
+      <c r="AJ216" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK216" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -31061,6 +32791,14 @@
         </is>
       </c>
       <c r="AI217" t="inlineStr"/>
+      <c r="AJ217" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK217" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -31202,6 +32940,14 @@
         </is>
       </c>
       <c r="AI218" t="inlineStr"/>
+      <c r="AJ218" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK218" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -31343,6 +33089,14 @@
         </is>
       </c>
       <c r="AI219" t="inlineStr"/>
+      <c r="AJ219" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK219" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -31484,6 +33238,14 @@
         </is>
       </c>
       <c r="AI220" t="inlineStr"/>
+      <c r="AJ220" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK220" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -31625,6 +33387,14 @@
         </is>
       </c>
       <c r="AI221" t="inlineStr"/>
+      <c r="AJ221" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK221" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -31766,6 +33536,14 @@
         </is>
       </c>
       <c r="AI222" t="inlineStr"/>
+      <c r="AJ222" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK222" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -31907,6 +33685,14 @@
         </is>
       </c>
       <c r="AI223" t="inlineStr"/>
+      <c r="AJ223" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK223" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -32048,6 +33834,14 @@
         </is>
       </c>
       <c r="AI224" t="inlineStr"/>
+      <c r="AJ224" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK224" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -32189,6 +33983,14 @@
         </is>
       </c>
       <c r="AI225" t="inlineStr"/>
+      <c r="AJ225" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK225" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -32330,6 +34132,14 @@
         </is>
       </c>
       <c r="AI226" t="inlineStr"/>
+      <c r="AJ226" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK226" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -32471,6 +34281,14 @@
         </is>
       </c>
       <c r="AI227" t="inlineStr"/>
+      <c r="AJ227" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK227" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -32612,6 +34430,14 @@
         </is>
       </c>
       <c r="AI228" t="inlineStr"/>
+      <c r="AJ228" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK228" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -32753,6 +34579,14 @@
         </is>
       </c>
       <c r="AI229" t="inlineStr"/>
+      <c r="AJ229" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK229" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -32894,6 +34728,14 @@
         </is>
       </c>
       <c r="AI230" t="inlineStr"/>
+      <c r="AJ230" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK230" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -33035,6 +34877,14 @@
         </is>
       </c>
       <c r="AI231" t="inlineStr"/>
+      <c r="AJ231" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK231" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -33176,6 +35026,14 @@
         </is>
       </c>
       <c r="AI232" t="inlineStr"/>
+      <c r="AJ232" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK232" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -33317,6 +35175,14 @@
         </is>
       </c>
       <c r="AI233" t="inlineStr"/>
+      <c r="AJ233" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK233" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -33458,6 +35324,14 @@
         </is>
       </c>
       <c r="AI234" t="inlineStr"/>
+      <c r="AJ234" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK234" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -33599,6 +35473,14 @@
         </is>
       </c>
       <c r="AI235" t="inlineStr"/>
+      <c r="AJ235" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK235" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -33740,6 +35622,14 @@
         </is>
       </c>
       <c r="AI236" t="inlineStr"/>
+      <c r="AJ236" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK236" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -33881,6 +35771,14 @@
         </is>
       </c>
       <c r="AI237" t="inlineStr"/>
+      <c r="AJ237" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK237" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -34022,6 +35920,14 @@
         </is>
       </c>
       <c r="AI238" t="inlineStr"/>
+      <c r="AJ238" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK238" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -34163,6 +36069,14 @@
         </is>
       </c>
       <c r="AI239" t="inlineStr"/>
+      <c r="AJ239" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK239" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -34304,6 +36218,14 @@
         </is>
       </c>
       <c r="AI240" t="inlineStr"/>
+      <c r="AJ240" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK240" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -34445,6 +36367,14 @@
         </is>
       </c>
       <c r="AI241" t="inlineStr"/>
+      <c r="AJ241" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK241" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -34586,6 +36516,14 @@
         </is>
       </c>
       <c r="AI242" t="inlineStr"/>
+      <c r="AJ242" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK242" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -34727,6 +36665,14 @@
         </is>
       </c>
       <c r="AI243" t="inlineStr"/>
+      <c r="AJ243" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK243" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -34868,6 +36814,14 @@
         </is>
       </c>
       <c r="AI244" t="inlineStr"/>
+      <c r="AJ244" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK244" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -35009,6 +36963,14 @@
         </is>
       </c>
       <c r="AI245" t="inlineStr"/>
+      <c r="AJ245" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK245" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -35150,6 +37112,14 @@
         </is>
       </c>
       <c r="AI246" t="inlineStr"/>
+      <c r="AJ246" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK246" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -35291,6 +37261,14 @@
         </is>
       </c>
       <c r="AI247" t="inlineStr"/>
+      <c r="AJ247" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK247" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -35432,6 +37410,14 @@
         </is>
       </c>
       <c r="AI248" t="inlineStr"/>
+      <c r="AJ248" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK248" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -35573,6 +37559,14 @@
         </is>
       </c>
       <c r="AI249" t="inlineStr"/>
+      <c r="AJ249" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK249" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -35714,6 +37708,14 @@
         </is>
       </c>
       <c r="AI250" t="inlineStr"/>
+      <c r="AJ250" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK250" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -35855,6 +37857,14 @@
         </is>
       </c>
       <c r="AI251" t="inlineStr"/>
+      <c r="AJ251" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK251" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -35996,6 +38006,14 @@
         </is>
       </c>
       <c r="AI252" t="inlineStr"/>
+      <c r="AJ252" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK252" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -36137,6 +38155,14 @@
         </is>
       </c>
       <c r="AI253" t="inlineStr"/>
+      <c r="AJ253" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK253" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -36278,6 +38304,14 @@
         </is>
       </c>
       <c r="AI254" t="inlineStr"/>
+      <c r="AJ254" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK254" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -36419,6 +38453,14 @@
         </is>
       </c>
       <c r="AI255" t="inlineStr"/>
+      <c r="AJ255" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK255" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -36560,6 +38602,14 @@
         </is>
       </c>
       <c r="AI256" t="inlineStr"/>
+      <c r="AJ256" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK256" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -36701,6 +38751,14 @@
         </is>
       </c>
       <c r="AI257" t="inlineStr"/>
+      <c r="AJ257" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK257" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -36842,6 +38900,14 @@
         </is>
       </c>
       <c r="AI258" t="inlineStr"/>
+      <c r="AJ258" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK258" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -36983,6 +39049,14 @@
         </is>
       </c>
       <c r="AI259" t="inlineStr"/>
+      <c r="AJ259" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK259" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -37124,6 +39198,14 @@
         </is>
       </c>
       <c r="AI260" t="inlineStr"/>
+      <c r="AJ260" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK260" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -37265,6 +39347,14 @@
         </is>
       </c>
       <c r="AI261" t="inlineStr"/>
+      <c r="AJ261" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK261" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -37406,6 +39496,14 @@
         </is>
       </c>
       <c r="AI262" t="inlineStr"/>
+      <c r="AJ262" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK262" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -37547,6 +39645,14 @@
         </is>
       </c>
       <c r="AI263" t="inlineStr"/>
+      <c r="AJ263" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK263" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -37688,6 +39794,14 @@
         </is>
       </c>
       <c r="AI264" t="inlineStr"/>
+      <c r="AJ264" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK264" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -37829,6 +39943,14 @@
         </is>
       </c>
       <c r="AI265" t="inlineStr"/>
+      <c r="AJ265" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK265" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -37970,6 +40092,14 @@
         </is>
       </c>
       <c r="AI266" t="inlineStr"/>
+      <c r="AJ266" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK266" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -38111,6 +40241,14 @@
         </is>
       </c>
       <c r="AI267" t="inlineStr"/>
+      <c r="AJ267" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK267" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -38252,6 +40390,14 @@
         </is>
       </c>
       <c r="AI268" t="inlineStr"/>
+      <c r="AJ268" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK268" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -38393,6 +40539,14 @@
         </is>
       </c>
       <c r="AI269" t="inlineStr"/>
+      <c r="AJ269" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK269" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -38534,6 +40688,14 @@
         </is>
       </c>
       <c r="AI270" t="inlineStr"/>
+      <c r="AJ270" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK270" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -38675,6 +40837,14 @@
         </is>
       </c>
       <c r="AI271" t="inlineStr"/>
+      <c r="AJ271" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK271" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -38816,6 +40986,14 @@
         </is>
       </c>
       <c r="AI272" t="inlineStr"/>
+      <c r="AJ272" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK272" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -38957,6 +41135,14 @@
         </is>
       </c>
       <c r="AI273" t="inlineStr"/>
+      <c r="AJ273" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK273" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -39098,6 +41284,14 @@
         </is>
       </c>
       <c r="AI274" t="inlineStr"/>
+      <c r="AJ274" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK274" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -39239,6 +41433,14 @@
         </is>
       </c>
       <c r="AI275" t="inlineStr"/>
+      <c r="AJ275" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK275" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -39380,6 +41582,14 @@
         </is>
       </c>
       <c r="AI276" t="inlineStr"/>
+      <c r="AJ276" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK276" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -39521,6 +41731,14 @@
         </is>
       </c>
       <c r="AI277" t="inlineStr"/>
+      <c r="AJ277" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK277" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -39662,6 +41880,14 @@
         </is>
       </c>
       <c r="AI278" t="inlineStr"/>
+      <c r="AJ278" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK278" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -39803,6 +42029,14 @@
         </is>
       </c>
       <c r="AI279" t="inlineStr"/>
+      <c r="AJ279" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK279" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -39944,6 +42178,14 @@
         </is>
       </c>
       <c r="AI280" t="inlineStr"/>
+      <c r="AJ280" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK280" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -40085,6 +42327,14 @@
         </is>
       </c>
       <c r="AI281" t="inlineStr"/>
+      <c r="AJ281" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK281" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -40226,6 +42476,14 @@
         </is>
       </c>
       <c r="AI282" t="inlineStr"/>
+      <c r="AJ282" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK282" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -40367,6 +42625,14 @@
         </is>
       </c>
       <c r="AI283" t="inlineStr"/>
+      <c r="AJ283" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK283" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -40508,6 +42774,14 @@
         </is>
       </c>
       <c r="AI284" t="inlineStr"/>
+      <c r="AJ284" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK284" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -40649,6 +42923,14 @@
         </is>
       </c>
       <c r="AI285" t="inlineStr"/>
+      <c r="AJ285" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK285" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -40790,6 +43072,14 @@
         </is>
       </c>
       <c r="AI286" t="inlineStr"/>
+      <c r="AJ286" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK286" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -40931,6 +43221,14 @@
         </is>
       </c>
       <c r="AI287" t="inlineStr"/>
+      <c r="AJ287" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK287" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -41072,6 +43370,14 @@
         </is>
       </c>
       <c r="AI288" t="inlineStr"/>
+      <c r="AJ288" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK288" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -41213,6 +43519,14 @@
         </is>
       </c>
       <c r="AI289" t="inlineStr"/>
+      <c r="AJ289" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK289" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -41354,6 +43668,14 @@
         </is>
       </c>
       <c r="AI290" t="inlineStr"/>
+      <c r="AJ290" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK290" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -41495,6 +43817,14 @@
         </is>
       </c>
       <c r="AI291" t="inlineStr"/>
+      <c r="AJ291" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK291" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -41624,6 +43954,14 @@
         </is>
       </c>
       <c r="AI292" t="inlineStr"/>
+      <c r="AJ292" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK292" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -41769,6 +44107,14 @@
           <t>non-tail</t>
         </is>
       </c>
+      <c r="AJ293" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK293" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -41910,6 +44256,14 @@
         </is>
       </c>
       <c r="AI294" t="inlineStr"/>
+      <c r="AJ294" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK294" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -42051,6 +44405,14 @@
         </is>
       </c>
       <c r="AI295" t="inlineStr"/>
+      <c r="AJ295" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK295" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -42192,6 +44554,14 @@
         </is>
       </c>
       <c r="AI296" t="inlineStr"/>
+      <c r="AJ296" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK296" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -42333,6 +44703,14 @@
         </is>
       </c>
       <c r="AI297" t="inlineStr"/>
+      <c r="AJ297" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK297" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -42474,6 +44852,14 @@
         </is>
       </c>
       <c r="AI298" t="inlineStr"/>
+      <c r="AJ298" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK298" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -42615,6 +45001,14 @@
         </is>
       </c>
       <c r="AI299" t="inlineStr"/>
+      <c r="AJ299" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK299" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -42756,6 +45150,14 @@
         </is>
       </c>
       <c r="AI300" t="inlineStr"/>
+      <c r="AJ300" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK300" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -42897,6 +45299,14 @@
         </is>
       </c>
       <c r="AI301" t="inlineStr"/>
+      <c r="AJ301" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK301" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -43038,6 +45448,14 @@
         </is>
       </c>
       <c r="AI302" t="inlineStr"/>
+      <c r="AJ302" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK302" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -43179,6 +45597,14 @@
         </is>
       </c>
       <c r="AI303" t="inlineStr"/>
+      <c r="AJ303" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK303" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -43320,6 +45746,14 @@
         </is>
       </c>
       <c r="AI304" t="inlineStr"/>
+      <c r="AJ304" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK304" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -43461,6 +45895,14 @@
         </is>
       </c>
       <c r="AI305" t="inlineStr"/>
+      <c r="AJ305" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK305" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -43602,6 +46044,14 @@
         </is>
       </c>
       <c r="AI306" t="inlineStr"/>
+      <c r="AJ306" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK306" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -43743,6 +46193,14 @@
         </is>
       </c>
       <c r="AI307" t="inlineStr"/>
+      <c r="AJ307" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK307" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -43884,6 +46342,14 @@
         </is>
       </c>
       <c r="AI308" t="inlineStr"/>
+      <c r="AJ308" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK308" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -44025,6 +46491,14 @@
         </is>
       </c>
       <c r="AI309" t="inlineStr"/>
+      <c r="AJ309" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK309" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -44166,6 +46640,14 @@
         </is>
       </c>
       <c r="AI310" t="inlineStr"/>
+      <c r="AJ310" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK310" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -44307,6 +46789,14 @@
         </is>
       </c>
       <c r="AI311" t="inlineStr"/>
+      <c r="AJ311" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK311" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -44448,6 +46938,14 @@
         </is>
       </c>
       <c r="AI312" t="inlineStr"/>
+      <c r="AJ312" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK312" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -44589,6 +47087,14 @@
         </is>
       </c>
       <c r="AI313" t="inlineStr"/>
+      <c r="AJ313" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK313" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -44730,6 +47236,14 @@
         </is>
       </c>
       <c r="AI314" t="inlineStr"/>
+      <c r="AJ314" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK314" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -44871,6 +47385,14 @@
         </is>
       </c>
       <c r="AI315" t="inlineStr"/>
+      <c r="AJ315" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK315" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -45012,6 +47534,14 @@
         </is>
       </c>
       <c r="AI316" t="inlineStr"/>
+      <c r="AJ316" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK316" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -45153,6 +47683,14 @@
         </is>
       </c>
       <c r="AI317" t="inlineStr"/>
+      <c r="AJ317" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK317" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -45294,6 +47832,14 @@
         </is>
       </c>
       <c r="AI318" t="inlineStr"/>
+      <c r="AJ318" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK318" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -45435,6 +47981,14 @@
         </is>
       </c>
       <c r="AI319" t="inlineStr"/>
+      <c r="AJ319" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK319" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -45576,6 +48130,14 @@
         </is>
       </c>
       <c r="AI320" t="inlineStr"/>
+      <c r="AJ320" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK320" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -45717,6 +48279,14 @@
         </is>
       </c>
       <c r="AI321" t="inlineStr"/>
+      <c r="AJ321" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK321" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -45858,6 +48428,14 @@
         </is>
       </c>
       <c r="AI322" t="inlineStr"/>
+      <c r="AJ322" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK322" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -45999,6 +48577,14 @@
         </is>
       </c>
       <c r="AI323" t="inlineStr"/>
+      <c r="AJ323" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK323" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -46140,6 +48726,14 @@
         </is>
       </c>
       <c r="AI324" t="inlineStr"/>
+      <c r="AJ324" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK324" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -46281,6 +48875,14 @@
         </is>
       </c>
       <c r="AI325" t="inlineStr"/>
+      <c r="AJ325" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK325" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -46422,6 +49024,14 @@
         </is>
       </c>
       <c r="AI326" t="inlineStr"/>
+      <c r="AJ326" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK326" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -46563,6 +49173,14 @@
         </is>
       </c>
       <c r="AI327" t="inlineStr"/>
+      <c r="AJ327" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK327" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -46704,6 +49322,14 @@
         </is>
       </c>
       <c r="AI328" t="inlineStr"/>
+      <c r="AJ328" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK328" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -46845,6 +49471,14 @@
         </is>
       </c>
       <c r="AI329" t="inlineStr"/>
+      <c r="AJ329" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK329" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -46986,6 +49620,14 @@
         </is>
       </c>
       <c r="AI330" t="inlineStr"/>
+      <c r="AJ330" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK330" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -47127,6 +49769,14 @@
         </is>
       </c>
       <c r="AI331" t="inlineStr"/>
+      <c r="AJ331" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK331" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -47268,6 +49918,14 @@
         </is>
       </c>
       <c r="AI332" t="inlineStr"/>
+      <c r="AJ332" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK332" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -47409,6 +50067,14 @@
         </is>
       </c>
       <c r="AI333" t="inlineStr"/>
+      <c r="AJ333" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK333" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -47550,6 +50216,14 @@
         </is>
       </c>
       <c r="AI334" t="inlineStr"/>
+      <c r="AJ334" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK334" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -47691,6 +50365,14 @@
         </is>
       </c>
       <c r="AI335" t="inlineStr"/>
+      <c r="AJ335" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK335" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -47832,6 +50514,14 @@
         </is>
       </c>
       <c r="AI336" t="inlineStr"/>
+      <c r="AJ336" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK336" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -47973,6 +50663,14 @@
         </is>
       </c>
       <c r="AI337" t="inlineStr"/>
+      <c r="AJ337" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK337" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -48114,6 +50812,14 @@
         </is>
       </c>
       <c r="AI338" t="inlineStr"/>
+      <c r="AJ338" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK338" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -48255,6 +50961,14 @@
         </is>
       </c>
       <c r="AI339" t="inlineStr"/>
+      <c r="AJ339" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK339" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -48396,6 +51110,14 @@
         </is>
       </c>
       <c r="AI340" t="inlineStr"/>
+      <c r="AJ340" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK340" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -48537,6 +51259,14 @@
         </is>
       </c>
       <c r="AI341" t="inlineStr"/>
+      <c r="AJ341" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK341" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -48678,6 +51408,14 @@
         </is>
       </c>
       <c r="AI342" t="inlineStr"/>
+      <c r="AJ342" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK342" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -48819,6 +51557,14 @@
         </is>
       </c>
       <c r="AI343" t="inlineStr"/>
+      <c r="AJ343" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK343" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -48960,6 +51706,14 @@
         </is>
       </c>
       <c r="AI344" t="inlineStr"/>
+      <c r="AJ344" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK344" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -49101,6 +51855,14 @@
         </is>
       </c>
       <c r="AI345" t="inlineStr"/>
+      <c r="AJ345" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK345" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -49242,6 +52004,14 @@
         </is>
       </c>
       <c r="AI346" t="inlineStr"/>
+      <c r="AJ346" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK346" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -49383,6 +52153,14 @@
         </is>
       </c>
       <c r="AI347" t="inlineStr"/>
+      <c r="AJ347" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK347" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -49524,6 +52302,14 @@
         </is>
       </c>
       <c r="AI348" t="inlineStr"/>
+      <c r="AJ348" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK348" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -49665,6 +52451,14 @@
         </is>
       </c>
       <c r="AI349" t="inlineStr"/>
+      <c r="AJ349" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK349" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -49806,6 +52600,14 @@
         </is>
       </c>
       <c r="AI350" t="inlineStr"/>
+      <c r="AJ350" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK350" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -49947,6 +52749,14 @@
         </is>
       </c>
       <c r="AI351" t="inlineStr"/>
+      <c r="AJ351" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK351" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -50088,6 +52898,14 @@
         </is>
       </c>
       <c r="AI352" t="inlineStr"/>
+      <c r="AJ352" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK352" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -50229,6 +53047,14 @@
         </is>
       </c>
       <c r="AI353" t="inlineStr"/>
+      <c r="AJ353" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK353" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -50370,6 +53196,14 @@
         </is>
       </c>
       <c r="AI354" t="inlineStr"/>
+      <c r="AJ354" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK354" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -50511,6 +53345,14 @@
         </is>
       </c>
       <c r="AI355" t="inlineStr"/>
+      <c r="AJ355" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK355" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -50652,6 +53494,14 @@
         </is>
       </c>
       <c r="AI356" t="inlineStr"/>
+      <c r="AJ356" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK356" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -50793,6 +53643,14 @@
         </is>
       </c>
       <c r="AI357" t="inlineStr"/>
+      <c r="AJ357" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK357" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -50934,6 +53792,14 @@
         </is>
       </c>
       <c r="AI358" t="inlineStr"/>
+      <c r="AJ358" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK358" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -51075,6 +53941,14 @@
         </is>
       </c>
       <c r="AI359" t="inlineStr"/>
+      <c r="AJ359" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK359" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -51216,6 +54090,14 @@
         </is>
       </c>
       <c r="AI360" t="inlineStr"/>
+      <c r="AJ360" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK360" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -51357,6 +54239,14 @@
         </is>
       </c>
       <c r="AI361" t="inlineStr"/>
+      <c r="AJ361" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK361" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -51498,6 +54388,14 @@
         </is>
       </c>
       <c r="AI362" t="inlineStr"/>
+      <c r="AJ362" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK362" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -51639,6 +54537,14 @@
         </is>
       </c>
       <c r="AI363" t="inlineStr"/>
+      <c r="AJ363" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK363" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -51780,6 +54686,14 @@
         </is>
       </c>
       <c r="AI364" t="inlineStr"/>
+      <c r="AJ364" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK364" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -51921,6 +54835,14 @@
         </is>
       </c>
       <c r="AI365" t="inlineStr"/>
+      <c r="AJ365" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK365" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -52062,6 +54984,14 @@
         </is>
       </c>
       <c r="AI366" t="inlineStr"/>
+      <c r="AJ366" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK366" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -52203,6 +55133,14 @@
         </is>
       </c>
       <c r="AI367" t="inlineStr"/>
+      <c r="AJ367" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK367" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -52344,6 +55282,14 @@
         </is>
       </c>
       <c r="AI368" t="inlineStr"/>
+      <c r="AJ368" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK368" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -52485,6 +55431,14 @@
         </is>
       </c>
       <c r="AI369" t="inlineStr"/>
+      <c r="AJ369" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK369" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -52626,6 +55580,14 @@
         </is>
       </c>
       <c r="AI370" t="inlineStr"/>
+      <c r="AJ370" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK370" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -52767,6 +55729,14 @@
         </is>
       </c>
       <c r="AI371" t="inlineStr"/>
+      <c r="AJ371" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK371" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -52908,6 +55878,14 @@
         </is>
       </c>
       <c r="AI372" t="inlineStr"/>
+      <c r="AJ372" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK372" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -53049,6 +56027,14 @@
         </is>
       </c>
       <c r="AI373" t="inlineStr"/>
+      <c r="AJ373" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK373" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -53190,6 +56176,14 @@
         </is>
       </c>
       <c r="AI374" t="inlineStr"/>
+      <c r="AJ374" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK374" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -53331,6 +56325,14 @@
         </is>
       </c>
       <c r="AI375" t="inlineStr"/>
+      <c r="AJ375" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK375" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -53472,6 +56474,14 @@
         </is>
       </c>
       <c r="AI376" t="inlineStr"/>
+      <c r="AJ376" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK376" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -53613,6 +56623,14 @@
         </is>
       </c>
       <c r="AI377" t="inlineStr"/>
+      <c r="AJ377" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK377" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -53754,6 +56772,14 @@
         </is>
       </c>
       <c r="AI378" t="inlineStr"/>
+      <c r="AJ378" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK378" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -53895,6 +56921,14 @@
         </is>
       </c>
       <c r="AI379" t="inlineStr"/>
+      <c r="AJ379" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK379" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -54036,6 +57070,14 @@
         </is>
       </c>
       <c r="AI380" t="inlineStr"/>
+      <c r="AJ380" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK380" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -54177,6 +57219,14 @@
         </is>
       </c>
       <c r="AI381" t="inlineStr"/>
+      <c r="AJ381" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK381" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -54318,6 +57368,14 @@
         </is>
       </c>
       <c r="AI382" t="inlineStr"/>
+      <c r="AJ382" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK382" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -54459,6 +57517,14 @@
         </is>
       </c>
       <c r="AI383" t="inlineStr"/>
+      <c r="AJ383" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK383" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -54600,6 +57666,14 @@
         </is>
       </c>
       <c r="AI384" t="inlineStr"/>
+      <c r="AJ384" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK384" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -54741,6 +57815,14 @@
         </is>
       </c>
       <c r="AI385" t="inlineStr"/>
+      <c r="AJ385" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK385" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -54882,6 +57964,14 @@
         </is>
       </c>
       <c r="AI386" t="inlineStr"/>
+      <c r="AJ386" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK386" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -55023,6 +58113,14 @@
         </is>
       </c>
       <c r="AI387" t="inlineStr"/>
+      <c r="AJ387" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK387" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -55164,6 +58262,14 @@
         </is>
       </c>
       <c r="AI388" t="inlineStr"/>
+      <c r="AJ388" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK388" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -55305,6 +58411,14 @@
         </is>
       </c>
       <c r="AI389" t="inlineStr"/>
+      <c r="AJ389" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK389" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -55446,6 +58560,14 @@
         </is>
       </c>
       <c r="AI390" t="inlineStr"/>
+      <c r="AJ390" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK390" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -55587,6 +58709,14 @@
         </is>
       </c>
       <c r="AI391" t="inlineStr"/>
+      <c r="AJ391" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK391" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -55728,6 +58858,14 @@
         </is>
       </c>
       <c r="AI392" t="inlineStr"/>
+      <c r="AJ392" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK392" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -55869,6 +59007,14 @@
         </is>
       </c>
       <c r="AI393" t="inlineStr"/>
+      <c r="AJ393" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK393" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -56010,6 +59156,14 @@
         </is>
       </c>
       <c r="AI394" t="inlineStr"/>
+      <c r="AJ394" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK394" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -56151,6 +59305,14 @@
         </is>
       </c>
       <c r="AI395" t="inlineStr"/>
+      <c r="AJ395" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK395" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -56292,6 +59454,14 @@
         </is>
       </c>
       <c r="AI396" t="inlineStr"/>
+      <c r="AJ396" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK396" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -56433,6 +59603,14 @@
         </is>
       </c>
       <c r="AI397" t="inlineStr"/>
+      <c r="AJ397" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK397" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -56574,6 +59752,14 @@
         </is>
       </c>
       <c r="AI398" t="inlineStr"/>
+      <c r="AJ398" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK398" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -56715,6 +59901,14 @@
         </is>
       </c>
       <c r="AI399" t="inlineStr"/>
+      <c r="AJ399" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK399" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -56856,6 +60050,14 @@
         </is>
       </c>
       <c r="AI400" t="inlineStr"/>
+      <c r="AJ400" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK400" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -56997,6 +60199,14 @@
         </is>
       </c>
       <c r="AI401" t="inlineStr"/>
+      <c r="AJ401" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK401" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -57138,6 +60348,14 @@
         </is>
       </c>
       <c r="AI402" t="inlineStr"/>
+      <c r="AJ402" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK402" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -57279,6 +60497,14 @@
         </is>
       </c>
       <c r="AI403" t="inlineStr"/>
+      <c r="AJ403" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK403" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -57420,6 +60646,14 @@
         </is>
       </c>
       <c r="AI404" t="inlineStr"/>
+      <c r="AJ404" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK404" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -57561,6 +60795,14 @@
         </is>
       </c>
       <c r="AI405" t="inlineStr"/>
+      <c r="AJ405" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK405" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -57702,6 +60944,14 @@
         </is>
       </c>
       <c r="AI406" t="inlineStr"/>
+      <c r="AJ406" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK406" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -57843,6 +61093,14 @@
         </is>
       </c>
       <c r="AI407" t="inlineStr"/>
+      <c r="AJ407" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK407" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -57984,6 +61242,14 @@
         </is>
       </c>
       <c r="AI408" t="inlineStr"/>
+      <c r="AJ408" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK408" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -58125,6 +61391,14 @@
         </is>
       </c>
       <c r="AI409" t="inlineStr"/>
+      <c r="AJ409" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK409" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -58266,6 +61540,14 @@
         </is>
       </c>
       <c r="AI410" t="inlineStr"/>
+      <c r="AJ410" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK410" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -58407,6 +61689,14 @@
         </is>
       </c>
       <c r="AI411" t="inlineStr"/>
+      <c r="AJ411" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK411" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -58548,6 +61838,14 @@
         </is>
       </c>
       <c r="AI412" t="inlineStr"/>
+      <c r="AJ412" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK412" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -58689,6 +61987,14 @@
         </is>
       </c>
       <c r="AI413" t="inlineStr"/>
+      <c r="AJ413" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK413" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -58830,6 +62136,14 @@
         </is>
       </c>
       <c r="AI414" t="inlineStr"/>
+      <c r="AJ414" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK414" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -58971,6 +62285,14 @@
         </is>
       </c>
       <c r="AI415" t="inlineStr"/>
+      <c r="AJ415" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK415" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -59112,6 +62434,14 @@
         </is>
       </c>
       <c r="AI416" t="inlineStr"/>
+      <c r="AJ416" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK416" t="inlineStr">
+        <is>
+          <t>Terminate</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -59253,6 +62583,14 @@
         </is>
       </c>
       <c r="AI417" t="inlineStr"/>
+      <c r="AJ417" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK417" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -59394,6 +62732,14 @@
         </is>
       </c>
       <c r="AI418" t="inlineStr"/>
+      <c r="AJ418" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK418" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -59535,6 +62881,14 @@
         </is>
       </c>
       <c r="AI419" t="inlineStr"/>
+      <c r="AJ419" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK419" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -59680,6 +63034,14 @@
           <t>non-tail</t>
         </is>
       </c>
+      <c r="AJ420" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK420" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -59821,6 +63183,14 @@
         </is>
       </c>
       <c r="AI421" t="inlineStr"/>
+      <c r="AJ421" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK421" t="inlineStr">
+        <is>
+          <t>Nonterminate</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -59933,30 +63303,20 @@
       <c r="Z422" t="n">
         <v>0</v>
       </c>
-      <c r="AA422" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB422" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AC422" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD422" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE422" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA422" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB422" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC422" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD422" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE422" t="b">
+        <v>1</v>
       </c>
       <c r="AF422" t="n">
         <v>3782</v>
@@ -59972,6 +63332,14 @@
         </is>
       </c>
       <c r="AI422" t="inlineStr"/>
+      <c r="AJ422" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK422" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -60084,30 +63452,20 @@
       <c r="Z423" t="n">
         <v>3</v>
       </c>
-      <c r="AA423" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB423" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC423" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD423" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE423" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA423" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB423" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC423" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD423" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE423" t="b">
+        <v>1</v>
       </c>
       <c r="AF423" t="n">
         <v>26</v>
@@ -60123,6 +63481,14 @@
         </is>
       </c>
       <c r="AI423" t="inlineStr"/>
+      <c r="AJ423" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK423" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -60235,30 +63601,20 @@
       <c r="Z424" t="n">
         <v>2</v>
       </c>
-      <c r="AA424" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB424" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC424" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD424" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE424" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA424" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB424" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC424" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD424" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE424" t="b">
+        <v>1</v>
       </c>
       <c r="AF424" t="n">
         <v>27</v>
@@ -60274,6 +63630,14 @@
         </is>
       </c>
       <c r="AI424" t="inlineStr"/>
+      <c r="AJ424" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK424" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -60386,30 +63750,20 @@
       <c r="Z425" t="n">
         <v>3</v>
       </c>
-      <c r="AA425" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB425" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC425" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD425" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE425" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA425" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB425" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC425" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD425" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE425" t="b">
+        <v>1</v>
       </c>
       <c r="AF425" t="n">
         <v>41</v>
@@ -60425,6 +63779,14 @@
         </is>
       </c>
       <c r="AI425" t="inlineStr"/>
+      <c r="AJ425" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK425" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -60537,30 +63899,20 @@
       <c r="Z426" t="n">
         <v>3</v>
       </c>
-      <c r="AA426" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB426" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC426" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD426" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE426" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA426" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB426" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC426" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD426" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE426" t="b">
+        <v>1</v>
       </c>
       <c r="AF426" t="n">
         <v>15</v>
@@ -60576,6 +63928,14 @@
         </is>
       </c>
       <c r="AI426" t="inlineStr"/>
+      <c r="AJ426" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK426" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -60688,30 +64048,20 @@
       <c r="Z427" t="n">
         <v>3</v>
       </c>
-      <c r="AA427" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB427" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC427" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD427" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE427" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA427" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB427" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC427" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD427" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE427" t="b">
+        <v>1</v>
       </c>
       <c r="AF427" t="n">
         <v>28</v>
@@ -60727,6 +64077,14 @@
         </is>
       </c>
       <c r="AI427" t="inlineStr"/>
+      <c r="AJ427" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK427" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -60839,30 +64197,20 @@
       <c r="Z428" t="n">
         <v>3</v>
       </c>
-      <c r="AA428" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB428" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC428" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD428" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE428" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA428" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB428" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC428" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD428" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE428" t="b">
+        <v>1</v>
       </c>
       <c r="AF428" t="n">
         <v>27</v>
@@ -60878,6 +64226,14 @@
         </is>
       </c>
       <c r="AI428" t="inlineStr"/>
+      <c r="AJ428" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK428" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -60990,30 +64346,20 @@
       <c r="Z429" t="n">
         <v>3</v>
       </c>
-      <c r="AA429" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB429" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC429" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD429" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE429" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA429" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB429" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC429" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD429" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE429" t="b">
+        <v>1</v>
       </c>
       <c r="AF429" t="n">
         <v>26</v>
@@ -61029,6 +64375,14 @@
         </is>
       </c>
       <c r="AI429" t="inlineStr"/>
+      <c r="AJ429" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK429" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -61141,30 +64495,20 @@
       <c r="Z430" t="n">
         <v>3</v>
       </c>
-      <c r="AA430" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB430" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC430" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD430" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE430" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="AA430" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB430" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC430" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD430" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE430" t="b">
+        <v>0</v>
       </c>
       <c r="AF430" t="n">
         <v>27</v>
@@ -61180,6 +64524,14 @@
         </is>
       </c>
       <c r="AI430" t="inlineStr"/>
+      <c r="AJ430" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK430" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -61292,30 +64644,20 @@
       <c r="Z431" t="n">
         <v>2</v>
       </c>
-      <c r="AA431" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB431" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC431" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD431" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE431" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA431" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB431" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC431" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD431" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE431" t="b">
+        <v>1</v>
       </c>
       <c r="AF431" t="n">
         <v>25</v>
@@ -61331,6 +64673,14 @@
         </is>
       </c>
       <c r="AI431" t="inlineStr"/>
+      <c r="AJ431" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK431" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -61443,30 +64793,20 @@
       <c r="Z432" t="n">
         <v>2</v>
       </c>
-      <c r="AA432" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB432" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC432" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD432" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE432" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="AA432" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB432" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC432" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD432" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE432" t="b">
+        <v>0</v>
       </c>
       <c r="AF432" t="n">
         <v>33</v>
@@ -61482,6 +64822,14 @@
         </is>
       </c>
       <c r="AI432" t="inlineStr"/>
+      <c r="AJ432" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK432" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -61594,30 +64942,20 @@
       <c r="Z433" t="n">
         <v>2</v>
       </c>
-      <c r="AA433" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB433" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC433" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD433" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE433" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA433" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB433" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC433" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD433" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE433" t="b">
+        <v>1</v>
       </c>
       <c r="AF433" t="n">
         <v>26</v>
@@ -61633,6 +64971,14 @@
         </is>
       </c>
       <c r="AI433" t="inlineStr"/>
+      <c r="AJ433" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK433" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -61745,30 +65091,20 @@
       <c r="Z434" t="n">
         <v>2</v>
       </c>
-      <c r="AA434" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB434" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC434" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD434" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE434" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="AA434" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB434" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC434" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD434" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE434" t="b">
+        <v>0</v>
       </c>
       <c r="AF434" t="n">
         <v>27</v>
@@ -61784,6 +65120,14 @@
         </is>
       </c>
       <c r="AI434" t="inlineStr"/>
+      <c r="AJ434" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK434" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -61896,30 +65240,20 @@
       <c r="Z435" t="n">
         <v>2</v>
       </c>
-      <c r="AA435" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB435" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC435" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD435" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE435" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA435" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB435" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC435" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD435" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE435" t="b">
+        <v>1</v>
       </c>
       <c r="AF435" t="n">
         <v>33</v>
@@ -61935,6 +65269,14 @@
         </is>
       </c>
       <c r="AI435" t="inlineStr"/>
+      <c r="AJ435" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK435" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -62047,30 +65389,20 @@
       <c r="Z436" t="n">
         <v>2</v>
       </c>
-      <c r="AA436" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB436" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC436" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD436" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE436" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA436" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB436" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC436" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD436" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE436" t="b">
+        <v>1</v>
       </c>
       <c r="AF436" t="n">
         <v>27</v>
@@ -62086,6 +65418,14 @@
         </is>
       </c>
       <c r="AI436" t="inlineStr"/>
+      <c r="AJ436" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK436" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -62198,30 +65538,20 @@
       <c r="Z437" t="n">
         <v>2</v>
       </c>
-      <c r="AA437" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB437" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC437" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD437" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE437" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA437" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB437" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC437" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD437" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE437" t="b">
+        <v>1</v>
       </c>
       <c r="AF437" t="n">
         <v>21</v>
@@ -62237,6 +65567,14 @@
         </is>
       </c>
       <c r="AI437" t="inlineStr"/>
+      <c r="AJ437" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK437" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -62349,30 +65687,20 @@
       <c r="Z438" t="n">
         <v>2</v>
       </c>
-      <c r="AA438" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB438" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC438" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD438" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE438" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA438" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB438" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC438" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD438" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE438" t="b">
+        <v>1</v>
       </c>
       <c r="AF438" t="n">
         <v>13</v>
@@ -62388,6 +65716,14 @@
         </is>
       </c>
       <c r="AI438" t="inlineStr"/>
+      <c r="AJ438" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK438" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -62500,30 +65836,20 @@
       <c r="Z439" t="n">
         <v>2</v>
       </c>
-      <c r="AA439" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB439" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC439" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD439" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE439" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA439" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB439" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC439" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD439" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE439" t="b">
+        <v>1</v>
       </c>
       <c r="AF439" t="n">
         <v>27</v>
@@ -62539,6 +65865,14 @@
         </is>
       </c>
       <c r="AI439" t="inlineStr"/>
+      <c r="AJ439" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK439" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -62651,30 +65985,20 @@
       <c r="Z440" t="n">
         <v>2</v>
       </c>
-      <c r="AA440" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB440" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC440" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD440" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE440" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA440" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB440" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC440" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD440" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE440" t="b">
+        <v>1</v>
       </c>
       <c r="AF440" t="n">
         <v>26</v>
@@ -62690,6 +66014,14 @@
         </is>
       </c>
       <c r="AI440" t="inlineStr"/>
+      <c r="AJ440" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK440" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -62802,30 +66134,20 @@
       <c r="Z441" t="n">
         <v>2</v>
       </c>
-      <c r="AA441" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB441" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC441" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AD441" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE441" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="AA441" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB441" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC441" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD441" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE441" t="b">
+        <v>1</v>
       </c>
       <c r="AF441" t="n">
         <v>26</v>
@@ -62841,6 +66163,14 @@
         </is>
       </c>
       <c r="AI441" t="inlineStr"/>
+      <c r="AJ441" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK441" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
